--- a/excel_data/2020-11-27.xlsx
+++ b/excel_data/2020-11-27.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="244">
   <si>
     <t>Position</t>
   </si>
@@ -161,9 +161,6 @@
     <t>ES</t>
   </si>
   <si>
-    <t>EV</t>
-  </si>
-  <si>
     <t>F</t>
   </si>
   <si>
@@ -582,9 +579,6 @@
   </si>
   <si>
     <t>12/4 95c</t>
-  </si>
-  <si>
-    <t>12/18 40c</t>
   </si>
   <si>
     <t>12/18 130c</t>
@@ -839,15 +833,15 @@
           <c:order val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$A$192</c:f>
+              <c:f>Sheet1!$B$2:$A$190</c:f>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$192</c:f>
+              <c:f>Sheet1!$C$2:$C$190</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="191"/>
+                <c:ptCount val="189"/>
                 <c:pt idx="0">
                   <c:v>6</c:v>
                 </c:pt>
@@ -1020,142 +1014,142 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="58">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="66">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="67">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="75">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="60">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="76">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="80">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="65">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="77">
+                <c:pt idx="81">
                   <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="83">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="85">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="84">
+                <c:pt idx="86">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="85">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="86">
+                <c:pt idx="87">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="100">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="87">
+                <c:pt idx="101">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="88">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>1</c:v>
-                </c:pt>
                 <c:pt idx="102">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="103">
                   <c:v>2</c:v>
@@ -1164,261 +1158,255 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="105">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="113">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="106">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="110">
+                <c:pt idx="114">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="173">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="111">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="115">
+                <c:pt idx="174">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="175">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="116">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="120">
+                <c:pt idx="176">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="180">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="121">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="122">
+                <c:pt idx="181">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="123">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>360</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="132">
+                <c:pt idx="182">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="185">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="133">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="173">
+                <c:pt idx="186">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="187">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="174">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>3</c:v>
-                </c:pt>
                 <c:pt idx="188">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="190">
                   <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
@@ -1485,15 +1473,15 @@
           <c:order val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet2!$B$2:$A$78</c:f>
+              <c:f>Sheet2!$B$2:$A$77</c:f>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$C$3:$C$78</c:f>
+              <c:f>Sheet2!$C$3:$C$77</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1546,166 +1534,166 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="19">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1</c:v>
-                </c:pt>
                 <c:pt idx="28">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="35">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="29">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>1</c:v>
-                </c:pt>
                 <c:pt idx="36">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="46">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="37">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>1</c:v>
-                </c:pt>
                 <c:pt idx="47">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="54">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="48">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>1</c:v>
-                </c:pt>
                 <c:pt idx="55">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="63">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="56">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>1</c:v>
-                </c:pt>
                 <c:pt idx="64">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="67">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="65">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>1</c:v>
-                </c:pt>
                 <c:pt idx="68">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="69">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="69">
-                  <c:v>1</c:v>
-                </c:pt>
                 <c:pt idx="70">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="71">
                   <c:v>1</c:v>
@@ -1717,9 +1705,6 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="75">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -2127,7 +2112,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C192"/>
+  <dimension ref="A1:C190"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2149,7 +2134,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C2">
         <v>6</v>
@@ -2158,7 +2143,7 @@
     <row r="3" spans="1:3">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -2169,7 +2154,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C4">
         <v>4</v>
@@ -2178,7 +2163,7 @@
     <row r="5" spans="1:3">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -2189,7 +2174,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C6">
         <v>17</v>
@@ -2198,7 +2183,7 @@
     <row r="7" spans="1:3">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -2209,7 +2194,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -2218,7 +2203,7 @@
     <row r="9" spans="1:3">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -2229,7 +2214,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -2240,7 +2225,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C11">
         <v>5</v>
@@ -2251,7 +2236,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C12">
         <v>10</v>
@@ -2262,7 +2247,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -2273,7 +2258,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -2284,7 +2269,7 @@
         <v>11</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -2295,7 +2280,7 @@
         <v>12</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C16">
         <v>2</v>
@@ -2306,7 +2291,7 @@
         <v>13</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -2317,7 +2302,7 @@
         <v>14</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C18">
         <v>2</v>
@@ -2328,7 +2313,7 @@
         <v>15</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C19">
         <v>9</v>
@@ -2337,7 +2322,7 @@
     <row r="20" spans="1:3">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -2348,7 +2333,7 @@
         <v>16</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -2359,7 +2344,7 @@
         <v>17</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -2370,7 +2355,7 @@
         <v>18</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -2379,7 +2364,7 @@
     <row r="24" spans="1:3">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -2390,7 +2375,7 @@
         <v>19</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C25">
         <v>16</v>
@@ -2401,7 +2386,7 @@
         <v>20</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C26">
         <v>2</v>
@@ -2412,7 +2397,7 @@
         <v>21</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -2423,7 +2408,7 @@
         <v>22</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -2434,7 +2419,7 @@
         <v>23</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -2445,7 +2430,7 @@
         <v>24</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C30">
         <v>3</v>
@@ -2456,7 +2441,7 @@
         <v>25</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C31">
         <v>2</v>
@@ -2465,7 +2450,7 @@
     <row r="32" spans="1:3">
       <c r="A32" s="1"/>
       <c r="B32" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C32">
         <v>3</v>
@@ -2476,7 +2461,7 @@
         <v>26</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C33">
         <v>2</v>
@@ -2487,7 +2472,7 @@
         <v>27</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -2498,7 +2483,7 @@
         <v>28</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -2509,7 +2494,7 @@
         <v>29</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -2520,7 +2505,7 @@
         <v>30</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -2531,7 +2516,7 @@
         <v>31</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C38">
         <v>6</v>
@@ -2542,7 +2527,7 @@
         <v>32</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -2553,7 +2538,7 @@
         <v>33</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C40">
         <v>11</v>
@@ -2562,7 +2547,7 @@
     <row r="41" spans="1:3">
       <c r="A41" s="1"/>
       <c r="B41" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -2573,7 +2558,7 @@
         <v>34</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -2584,7 +2569,7 @@
         <v>35</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C43">
         <v>2</v>
@@ -2595,7 +2580,7 @@
         <v>36</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C44">
         <v>3</v>
@@ -2606,7 +2591,7 @@
         <v>37</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C45">
         <v>6</v>
@@ -2617,7 +2602,7 @@
         <v>38</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -2628,7 +2613,7 @@
         <v>39</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C47">
         <v>2</v>
@@ -2639,7 +2624,7 @@
         <v>40</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -2650,7 +2635,7 @@
         <v>41</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C49">
         <v>10</v>
@@ -2659,7 +2644,7 @@
     <row r="50" spans="1:3">
       <c r="A50" s="1"/>
       <c r="B50" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C50">
         <v>5</v>
@@ -2670,7 +2655,7 @@
         <v>42</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -2681,7 +2666,7 @@
         <v>43</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -2692,7 +2677,7 @@
         <v>44</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -2703,7 +2688,7 @@
         <v>45</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -2714,7 +2699,7 @@
         <v>46</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C55">
         <v>2</v>
@@ -2725,7 +2710,7 @@
         <v>47</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -2747,7 +2732,7 @@
         <v>49</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -2758,30 +2743,30 @@
         <v>50</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C59">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="1" t="s">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B60" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C60">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" s="1"/>
       <c r="B61" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C61">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -2789,7 +2774,7 @@
         <v>52</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C62">
         <v>1</v>
@@ -2800,7 +2785,7 @@
         <v>53</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -2811,7 +2796,7 @@
         <v>54</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -2822,10 +2807,10 @@
         <v>55</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C65">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -2833,10 +2818,10 @@
         <v>56</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C66">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -2844,19 +2829,19 @@
         <v>57</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C67">
-        <v>1</v>
+        <v>36</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="1"/>
       <c r="B68" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C68">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -2864,25 +2849,25 @@
         <v>58</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C69">
-        <v>36</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70" s="1"/>
+      <c r="A70" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="B70" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C70">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71" s="1" t="s">
-        <v>59</v>
-      </c>
+      <c r="A71" s="1"/>
       <c r="B71" s="1" t="s">
         <v>164</v>
       </c>
@@ -2902,20 +2887,22 @@
       </c>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" s="1"/>
+      <c r="A73" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="B73" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C73">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C74">
         <v>1</v>
@@ -2923,24 +2910,22 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C75">
-        <v>3</v>
+        <v>29</v>
       </c>
     </row>
     <row r="76" spans="1:3">
-      <c r="A76" s="1" t="s">
-        <v>63</v>
-      </c>
+      <c r="A76" s="1"/>
       <c r="B76" s="1" t="s">
         <v>164</v>
       </c>
       <c r="C76">
-        <v>1</v>
+        <v>58</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -2948,52 +2933,52 @@
         <v>64</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C77">
-        <v>29</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:3">
-      <c r="A78" s="1"/>
+      <c r="A78" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="B78" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C78">
-        <v>59</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C79">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C80">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="81" spans="1:3">
-      <c r="A81" s="1" t="s">
-        <v>67</v>
-      </c>
+      <c r="A81" s="1"/>
       <c r="B81" s="1" t="s">
         <v>164</v>
       </c>
       <c r="C81">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -3001,27 +2986,29 @@
         <v>68</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C82">
-        <v>18</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:3">
-      <c r="A83" s="1"/>
+      <c r="A83" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="B83" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C83">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C84">
         <v>2</v>
@@ -3029,74 +3016,72 @@
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C85">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>164</v>
       </c>
       <c r="C86">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C87">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C88">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C89">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C90">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:3">
-      <c r="A91" s="1" t="s">
-        <v>76</v>
-      </c>
+      <c r="A91" s="1"/>
       <c r="B91" s="1" t="s">
         <v>164</v>
       </c>
@@ -3109,16 +3094,18 @@
         <v>77</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C92">
         <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:3">
-      <c r="A93" s="1"/>
+      <c r="A93" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="B93" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C93">
         <v>1</v>
@@ -3126,21 +3113,19 @@
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C94">
         <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:3">
-      <c r="A95" s="1" t="s">
-        <v>79</v>
-      </c>
+      <c r="A95" s="1"/>
       <c r="B95" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C95">
         <v>1</v>
@@ -3151,16 +3136,18 @@
         <v>80</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C96">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:3">
-      <c r="A97" s="1"/>
+      <c r="A97" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="B97" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C97">
         <v>1</v>
@@ -3168,87 +3155,87 @@
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C98">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C99">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C100">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C101">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C102">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C103">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C104">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C105">
         <v>2</v>
@@ -3256,10 +3243,10 @@
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C106">
         <v>1</v>
@@ -3267,32 +3254,30 @@
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>164</v>
       </c>
       <c r="C107">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C108">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="109" spans="1:3">
-      <c r="A109" s="1" t="s">
-        <v>92</v>
-      </c>
+      <c r="A109" s="1"/>
       <c r="B109" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -3306,13 +3291,15 @@
         <v>164</v>
       </c>
       <c r="C110">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="111" spans="1:3">
-      <c r="A111" s="1"/>
+      <c r="A111" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="B111" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -3320,21 +3307,21 @@
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C112">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -3342,10 +3329,10 @@
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -3353,21 +3340,21 @@
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>164</v>
       </c>
       <c r="C115">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C116">
         <v>1</v>
@@ -3375,18 +3362,18 @@
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C117">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>164</v>
@@ -3397,24 +3384,22 @@
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C119">
-        <v>1</v>
+        <v>51</v>
       </c>
     </row>
     <row r="120" spans="1:3">
-      <c r="A120" s="1" t="s">
-        <v>102</v>
-      </c>
+      <c r="A120" s="1"/>
       <c r="B120" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C120">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -3425,24 +3410,26 @@
         <v>164</v>
       </c>
       <c r="C121">
-        <v>51</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:3">
-      <c r="A122" s="1"/>
+      <c r="A122" s="1" t="s">
+        <v>104</v>
+      </c>
       <c r="B122" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C122">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C123">
         <v>1</v>
@@ -3450,21 +3437,21 @@
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>164</v>
       </c>
       <c r="C124">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C125">
         <v>1</v>
@@ -3472,10 +3459,10 @@
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C126">
         <v>1</v>
@@ -3483,24 +3470,22 @@
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C127">
-        <v>1</v>
+        <v>360</v>
       </c>
     </row>
     <row r="128" spans="1:3">
-      <c r="A128" s="1" t="s">
-        <v>109</v>
-      </c>
+      <c r="A128" s="1"/>
       <c r="B128" s="1" t="s">
         <v>164</v>
       </c>
       <c r="C128">
-        <v>1</v>
+        <v>91</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -3508,49 +3493,51 @@
         <v>110</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C129">
-        <v>360</v>
+        <v>4</v>
       </c>
     </row>
     <row r="130" spans="1:3">
-      <c r="A130" s="1"/>
+      <c r="A130" s="1" t="s">
+        <v>111</v>
+      </c>
       <c r="B130" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C130">
-        <v>92</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C131">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C132">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C133">
         <v>1</v>
@@ -3558,35 +3545,33 @@
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C134">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C135">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:3">
-      <c r="A136" s="1" t="s">
-        <v>116</v>
-      </c>
+      <c r="A136" s="1"/>
       <c r="B136" s="1" t="s">
         <v>164</v>
       </c>
       <c r="C136">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -3594,19 +3579,19 @@
         <v>117</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C137">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="1"/>
       <c r="B138" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C138">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -3617,24 +3602,26 @@
         <v>164</v>
       </c>
       <c r="C139">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:3">
-      <c r="A140" s="1"/>
+      <c r="A140" s="1" t="s">
+        <v>119</v>
+      </c>
       <c r="B140" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C140">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C141">
         <v>1</v>
@@ -3642,65 +3629,65 @@
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C142">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C143">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C144">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C145">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C146">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C147">
         <v>1</v>
@@ -3708,21 +3695,21 @@
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C148">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C149">
         <v>1</v>
@@ -3730,32 +3717,32 @@
     </row>
     <row r="150" spans="1:3">
       <c r="A150" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>164</v>
       </c>
       <c r="C150">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C151">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C152">
         <v>1</v>
@@ -3763,35 +3750,33 @@
     </row>
     <row r="153" spans="1:3">
       <c r="A153" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C153">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C154">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="155" spans="1:3">
-      <c r="A155" s="1" t="s">
-        <v>133</v>
-      </c>
+      <c r="A155" s="1"/>
       <c r="B155" s="1" t="s">
         <v>164</v>
       </c>
       <c r="C155">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -3799,30 +3784,30 @@
         <v>134</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C156">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="157" spans="1:3">
-      <c r="A157" s="1"/>
+      <c r="A157" s="1" t="s">
+        <v>135</v>
+      </c>
       <c r="B157" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C157">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="158" spans="1:3">
-      <c r="A158" s="1" t="s">
-        <v>135</v>
-      </c>
+      <c r="A158" s="1"/>
       <c r="B158" s="1" t="s">
         <v>164</v>
       </c>
       <c r="C158">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -3830,60 +3815,62 @@
         <v>136</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C159">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:3">
-      <c r="A160" s="1"/>
+      <c r="A160" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="B160" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C160">
-        <v>19</v>
+        <v>3</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C161">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C162">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C163">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C164">
         <v>1</v>
@@ -3891,21 +3878,21 @@
     </row>
     <row r="165" spans="1:3">
       <c r="A165" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C165">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C166">
         <v>1</v>
@@ -3913,24 +3900,22 @@
     </row>
     <row r="167" spans="1:3">
       <c r="A167" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C167">
-        <v>2</v>
+        <v>28</v>
       </c>
     </row>
     <row r="168" spans="1:3">
-      <c r="A168" s="1" t="s">
-        <v>144</v>
-      </c>
+      <c r="A168" s="1"/>
       <c r="B168" s="1" t="s">
         <v>164</v>
       </c>
       <c r="C168">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -3941,35 +3926,37 @@
         <v>164</v>
       </c>
       <c r="C169">
-        <v>28</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:3">
-      <c r="A170" s="1"/>
+      <c r="A170" s="1" t="s">
+        <v>146</v>
+      </c>
       <c r="B170" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C170">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:3">
       <c r="A171" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C171">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C172">
         <v>1</v>
@@ -3977,21 +3964,21 @@
     </row>
     <row r="173" spans="1:3">
       <c r="A173" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C173">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C174">
         <v>1</v>
@@ -3999,35 +3986,33 @@
     </row>
     <row r="175" spans="1:3">
       <c r="A175" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C175">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="176" spans="1:3">
       <c r="A176" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C176">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="177" spans="1:3">
-      <c r="A177" s="1" t="s">
-        <v>152</v>
-      </c>
+      <c r="A177" s="1"/>
       <c r="B177" s="1" t="s">
         <v>164</v>
       </c>
       <c r="C177">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -4035,25 +4020,25 @@
         <v>153</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C178">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:3">
-      <c r="A179" s="1"/>
+      <c r="A179" s="1" t="s">
+        <v>154</v>
+      </c>
       <c r="B179" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C179">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:3">
-      <c r="A180" s="1" t="s">
-        <v>154</v>
-      </c>
+      <c r="A180" s="1"/>
       <c r="B180" s="1" t="s">
         <v>164</v>
       </c>
@@ -4066,19 +4051,19 @@
         <v>155</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C181">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182" s="1"/>
       <c r="B182" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C182">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -4086,38 +4071,40 @@
         <v>156</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C183">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:3">
-      <c r="A184" s="1"/>
+      <c r="A184" s="1" t="s">
+        <v>157</v>
+      </c>
       <c r="B184" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C184">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:3">
       <c r="A185" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C185">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C186">
         <v>1</v>
@@ -4125,18 +4112,18 @@
     </row>
     <row r="187" spans="1:3">
       <c r="A187" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C187">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B188" s="1" t="s">
         <v>164</v>
@@ -4147,48 +4134,26 @@
     </row>
     <row r="189" spans="1:3">
       <c r="A189" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C189">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="190" spans="1:3">
-      <c r="A190" s="1" t="s">
-        <v>162</v>
-      </c>
+      <c r="A190" s="1"/>
       <c r="B190" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C190">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3">
-      <c r="A191" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B191" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C191">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3">
-      <c r="A192" s="1"/>
-      <c r="B192" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C192">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="29">
+  <mergeCells count="28">
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A6:A7"/>
@@ -4198,26 +4163,25 @@
     <mergeCell ref="A31:A32"/>
     <mergeCell ref="A40:A41"/>
     <mergeCell ref="A49:A50"/>
-    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="A59:A60"/>
     <mergeCell ref="A67:A68"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="A92:A93"/>
-    <mergeCell ref="A96:A97"/>
-    <mergeCell ref="A110:A111"/>
-    <mergeCell ref="A121:A122"/>
-    <mergeCell ref="A129:A130"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="A90:A91"/>
+    <mergeCell ref="A94:A95"/>
+    <mergeCell ref="A108:A109"/>
+    <mergeCell ref="A119:A120"/>
+    <mergeCell ref="A127:A128"/>
+    <mergeCell ref="A135:A136"/>
     <mergeCell ref="A137:A138"/>
-    <mergeCell ref="A139:A140"/>
-    <mergeCell ref="A156:A157"/>
-    <mergeCell ref="A159:A160"/>
-    <mergeCell ref="A169:A170"/>
-    <mergeCell ref="A178:A179"/>
+    <mergeCell ref="A154:A155"/>
+    <mergeCell ref="A157:A158"/>
+    <mergeCell ref="A167:A168"/>
+    <mergeCell ref="A176:A177"/>
+    <mergeCell ref="A179:A180"/>
     <mergeCell ref="A181:A182"/>
-    <mergeCell ref="A183:A184"/>
-    <mergeCell ref="A191:A192"/>
+    <mergeCell ref="A189:A190"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4226,7 +4190,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C78"/>
+  <dimension ref="A1:C77"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4248,7 +4212,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -4257,7 +4221,7 @@
     <row r="3" spans="1:3">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -4268,7 +4232,7 @@
         <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -4277,7 +4241,7 @@
     <row r="5" spans="1:3">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -4286,7 +4250,7 @@
     <row r="6" spans="1:3">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -4295,7 +4259,7 @@
     <row r="7" spans="1:3">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -4306,7 +4270,7 @@
         <v>19</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -4314,10 +4278,10 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -4328,7 +4292,7 @@
         <v>33</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -4337,7 +4301,7 @@
     <row r="11" spans="1:3">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -4345,10 +4309,10 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -4356,10 +4320,10 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -4367,10 +4331,10 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -4379,7 +4343,7 @@
     <row r="15" spans="1:3">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -4387,10 +4351,10 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -4399,7 +4363,7 @@
     <row r="17" spans="1:3">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -4407,10 +4371,10 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -4419,7 +4383,7 @@
     <row r="19" spans="1:3">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -4427,72 +4391,72 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C21">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1" t="s">
+      <c r="C23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B24" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1" t="s">
+      <c r="C24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B25" s="1" t="s">
+      <c r="C25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>194</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1" t="s">
-        <v>195</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -4500,21 +4464,19 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1" t="s">
         <v>196</v>
-      </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>197</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -4523,7 +4485,7 @@
     <row r="29" spans="1:3">
       <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -4532,25 +4494,25 @@
     <row r="30" spans="1:3">
       <c r="A30" s="1"/>
       <c r="B30" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1"/>
       <c r="B31" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C31">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1"/>
       <c r="B32" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -4559,7 +4521,7 @@
     <row r="33" spans="1:3">
       <c r="A33" s="1"/>
       <c r="B33" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -4568,7 +4530,7 @@
     <row r="34" spans="1:3">
       <c r="A34" s="1"/>
       <c r="B34" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -4577,7 +4539,7 @@
     <row r="35" spans="1:3">
       <c r="A35" s="1"/>
       <c r="B35" s="1" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -4586,7 +4548,7 @@
     <row r="36" spans="1:3">
       <c r="A36" s="1"/>
       <c r="B36" s="1" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -4595,7 +4557,7 @@
     <row r="37" spans="1:3">
       <c r="A37" s="1"/>
       <c r="B37" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -4604,25 +4566,25 @@
     <row r="38" spans="1:3">
       <c r="A38" s="1"/>
       <c r="B38" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C38">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1"/>
       <c r="B39" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C39">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1"/>
       <c r="B40" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -4631,7 +4593,7 @@
     <row r="41" spans="1:3">
       <c r="A41" s="1"/>
       <c r="B41" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -4640,7 +4602,7 @@
     <row r="42" spans="1:3">
       <c r="A42" s="1"/>
       <c r="B42" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -4649,7 +4611,7 @@
     <row r="43" spans="1:3">
       <c r="A43" s="1"/>
       <c r="B43" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -4658,7 +4620,7 @@
     <row r="44" spans="1:3">
       <c r="A44" s="1"/>
       <c r="B44" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -4667,7 +4629,7 @@
     <row r="45" spans="1:3">
       <c r="A45" s="1"/>
       <c r="B45" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -4676,7 +4638,7 @@
     <row r="46" spans="1:3">
       <c r="A46" s="1"/>
       <c r="B46" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -4685,7 +4647,7 @@
     <row r="47" spans="1:3">
       <c r="A47" s="1"/>
       <c r="B47" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -4694,7 +4656,7 @@
     <row r="48" spans="1:3">
       <c r="A48" s="1"/>
       <c r="B48" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -4703,25 +4665,25 @@
     <row r="49" spans="1:3">
       <c r="A49" s="1"/>
       <c r="B49" s="1" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="C49">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="1"/>
       <c r="B50" s="1" t="s">
-        <v>193</v>
+        <v>216</v>
       </c>
       <c r="C50">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="1"/>
       <c r="B51" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -4730,7 +4692,7 @@
     <row r="52" spans="1:3">
       <c r="A52" s="1"/>
       <c r="B52" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -4739,7 +4701,7 @@
     <row r="53" spans="1:3">
       <c r="A53" s="1"/>
       <c r="B53" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -4748,25 +4710,25 @@
     <row r="54" spans="1:3">
       <c r="A54" s="1"/>
       <c r="B54" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C54">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="1"/>
       <c r="B55" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C55">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="1"/>
       <c r="B56" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -4775,63 +4737,65 @@
     <row r="57" spans="1:3">
       <c r="A57" s="1"/>
       <c r="B57" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C57">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="1"/>
       <c r="B58" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C58">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="1"/>
       <c r="B59" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C59">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="1"/>
       <c r="B60" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B61" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="C60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" s="1"/>
-      <c r="B61" s="1" t="s">
+      <c r="C61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="C61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B62" s="1" t="s">
+      <c r="C62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B63" s="1" t="s">
         <v>229</v>
-      </c>
-      <c r="C62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" s="1"/>
-      <c r="B63" s="1" t="s">
-        <v>230</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -4839,10 +4803,10 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="1" t="s">
-        <v>169</v>
+        <v>142</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -4850,102 +4814,102 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B65" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="1"/>
+      <c r="B66" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="C65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>233</v>
-      </c>
       <c r="C66">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="1"/>
       <c r="B67" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C67">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="1"/>
       <c r="B68" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C68">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="1"/>
       <c r="B69" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C69">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="1"/>
       <c r="B70" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C70">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="1"/>
       <c r="B71" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C71">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="1"/>
       <c r="B72" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C72">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="1"/>
       <c r="B73" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C73">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="1"/>
       <c r="B74" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B75" s="1" t="s">
         <v>241</v>
-      </c>
-      <c r="C74">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75" s="1"/>
-      <c r="B75" s="1" t="s">
-        <v>242</v>
       </c>
       <c r="C75">
         <v>1</v>
@@ -4953,10 +4917,10 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="1" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C76">
         <v>1</v>
@@ -4964,23 +4928,12 @@
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="1" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C77">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
-      <c r="A78" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="C78">
         <v>1</v>
       </c>
     </row>
@@ -4992,11 +4945,11 @@
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A28:A61"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A66:A75"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A27:A60"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="A65:A74"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
